--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H2">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N2">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O2">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P2">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q2">
-        <v>33.35426857029689</v>
+        <v>28.29236367038667</v>
       </c>
       <c r="R2">
-        <v>300.188417132672</v>
+        <v>254.63127303348</v>
       </c>
       <c r="S2">
-        <v>0.02578576994788287</v>
+        <v>0.01690349238131765</v>
       </c>
       <c r="T2">
-        <v>0.02578576994788287</v>
+        <v>0.01690349238131765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H3">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P3">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q3">
-        <v>21.12577218324267</v>
+        <v>58.14812911315333</v>
       </c>
       <c r="R3">
-        <v>190.131949649184</v>
+        <v>523.33316201838</v>
       </c>
       <c r="S3">
-        <v>0.01633207157100102</v>
+        <v>0.03474105129225596</v>
       </c>
       <c r="T3">
-        <v>0.01633207157100102</v>
+        <v>0.03474105129225596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H4">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N4">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q4">
-        <v>12.765827926368</v>
+        <v>43.48328008989222</v>
       </c>
       <c r="R4">
-        <v>114.892451337312</v>
+        <v>391.34952080903</v>
       </c>
       <c r="S4">
-        <v>0.009869102702996365</v>
+        <v>0.02597942336233759</v>
       </c>
       <c r="T4">
-        <v>0.009869102702996367</v>
+        <v>0.02597942336233759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H5">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N5">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O5">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P5">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q5">
-        <v>46.70895552103288</v>
+        <v>183.9393193070611</v>
       </c>
       <c r="R5">
-        <v>420.380599689296</v>
+        <v>1655.45387376355</v>
       </c>
       <c r="S5">
-        <v>0.03611011223444516</v>
+        <v>0.1098959747144085</v>
       </c>
       <c r="T5">
-        <v>0.03611011223444516</v>
+        <v>0.1098959747144085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.289964</v>
       </c>
       <c r="I6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N6">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O6">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P6">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q6">
-        <v>256.4689827353138</v>
+        <v>79.03682862149866</v>
       </c>
       <c r="R6">
-        <v>2308.220844617824</v>
+        <v>711.3314575934879</v>
       </c>
       <c r="S6">
-        <v>0.1982729788735247</v>
+        <v>0.04722116702625971</v>
       </c>
       <c r="T6">
-        <v>0.1982729788735247</v>
+        <v>0.04722116702625971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.289964</v>
       </c>
       <c r="I7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P7">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q7">
         <v>162.4411367293253</v>
@@ -883,10 +883,10 @@
         <v>1461.970230563928</v>
       </c>
       <c r="S7">
-        <v>0.1255812212744825</v>
+        <v>0.09705171858761144</v>
       </c>
       <c r="T7">
-        <v>0.1255812212744825</v>
+        <v>0.09705171858761144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.289964</v>
       </c>
       <c r="I8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N8">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q8">
-        <v>98.15951727885597</v>
+        <v>121.4737869343409</v>
       </c>
       <c r="R8">
-        <v>883.4356555097038</v>
+        <v>1093.264082409068</v>
       </c>
       <c r="S8">
-        <v>0.07588590124269314</v>
+        <v>0.07257545731760953</v>
       </c>
       <c r="T8">
-        <v>0.07588590124269315</v>
+        <v>0.07257545731760953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.289964</v>
       </c>
       <c r="I9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N9">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O9">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P9">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q9">
-        <v>359.1563784965257</v>
+        <v>513.8482109942644</v>
       </c>
       <c r="R9">
-        <v>3232.407406468732</v>
+        <v>4624.63389894838</v>
       </c>
       <c r="S9">
-        <v>0.277659326622845</v>
+        <v>0.3070026039848563</v>
       </c>
       <c r="T9">
-        <v>0.277659326622845</v>
+        <v>0.3070026039848562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H10">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N10">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O10">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P10">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q10">
-        <v>84.06782990669868</v>
+        <v>28.823232617336</v>
       </c>
       <c r="R10">
-        <v>756.6104691602881</v>
+        <v>259.409093556024</v>
       </c>
       <c r="S10">
-        <v>0.06499179310207802</v>
+        <v>0.01722066415617465</v>
       </c>
       <c r="T10">
-        <v>0.06499179310207803</v>
+        <v>0.01722066415617465</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H11">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>28.185334</v>
       </c>
       <c r="N11">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O11">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P11">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q11">
-        <v>53.246492838104</v>
+        <v>59.239202182516</v>
       </c>
       <c r="R11">
-        <v>479.218435542936</v>
+        <v>533.152819642644</v>
       </c>
       <c r="S11">
-        <v>0.04116420097659246</v>
+        <v>0.0353929213703554</v>
       </c>
       <c r="T11">
-        <v>0.04116420097659248</v>
+        <v>0.0353929213703554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H12">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N12">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q12">
-        <v>32.17565537287199</v>
+        <v>44.29918657901266</v>
       </c>
       <c r="R12">
-        <v>289.580898355848</v>
+        <v>398.692679211114</v>
       </c>
       <c r="S12">
-        <v>0.02487459875243949</v>
+        <v>0.02646689303024485</v>
       </c>
       <c r="T12">
-        <v>0.02487459875243949</v>
+        <v>0.02646689303024485</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H13">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N13">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O13">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P13">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q13">
-        <v>117.7276761319427</v>
+        <v>187.3906984099434</v>
       </c>
       <c r="R13">
-        <v>1059.549085187484</v>
+        <v>1686.51628568949</v>
       </c>
       <c r="S13">
-        <v>0.09101380133217872</v>
+        <v>0.1119580279613655</v>
       </c>
       <c r="T13">
-        <v>0.09101380133217875</v>
+        <v>0.1119580279613654</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H14">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I14">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J14">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N14">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O14">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P14">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q14">
-        <v>4.717125599145779</v>
+        <v>14.72413470520933</v>
       </c>
       <c r="R14">
-        <v>42.45413039231201</v>
+        <v>132.517212346884</v>
       </c>
       <c r="S14">
-        <v>0.003646751097494071</v>
+        <v>0.008797048620985692</v>
       </c>
       <c r="T14">
-        <v>0.003646751097494072</v>
+        <v>0.008797048620985693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H15">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I15">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J15">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>28.185334</v>
       </c>
       <c r="N15">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O15">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P15">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q15">
-        <v>2.987711169779334</v>
+        <v>30.26190727267267</v>
       </c>
       <c r="R15">
-        <v>26.889400528014</v>
+        <v>272.357165454054</v>
       </c>
       <c r="S15">
-        <v>0.002309762324191904</v>
+        <v>0.0180802115011401</v>
       </c>
       <c r="T15">
-        <v>0.002309762324191904</v>
+        <v>0.01808021150114011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H16">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I16">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J16">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N16">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q16">
-        <v>1.805406512778</v>
+        <v>22.62991105752211</v>
       </c>
       <c r="R16">
-        <v>16.248658615002</v>
+        <v>203.669199517699</v>
       </c>
       <c r="S16">
-        <v>0.00139573730728908</v>
+        <v>0.01352041609556665</v>
       </c>
       <c r="T16">
-        <v>0.00139573730728908</v>
+        <v>0.01352041609556665</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H17">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I17">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J17">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N17">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O17">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P17">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q17">
-        <v>6.605811467076778</v>
+        <v>95.72714908569056</v>
       </c>
       <c r="R17">
-        <v>59.452303203691</v>
+        <v>861.5443417712152</v>
       </c>
       <c r="S17">
-        <v>0.005106870637865474</v>
+        <v>0.05719292859751066</v>
       </c>
       <c r="T17">
-        <v>0.005106870637865475</v>
+        <v>0.05719292859751066</v>
       </c>
     </row>
   </sheetData>
